--- a/Quo/test.xlsx
+++ b/Quo/test.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxMish\Documents\Fax\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>№</t>
   </si>
@@ -171,9 +166,6 @@
     <t>ОУФМС России по району Соколиная гора  гор. Москвы в ВАО</t>
   </si>
   <si>
-    <t>Не Годен</t>
-  </si>
-  <si>
     <t>Орлов Павел Сергеевич</t>
   </si>
   <si>
@@ -235,6 +227,12 @@
   </si>
   <si>
     <t>659995</t>
+  </si>
+  <si>
+    <t>Не годен</t>
+  </si>
+  <si>
+    <t>12.03.04</t>
   </si>
 </sst>
 </file>
@@ -242,9 +240,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +311,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -366,7 +370,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
@@ -375,7 +379,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -399,13 +403,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Excel Built-in Normal" xfId="10"/>
@@ -479,7 +480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,7 +515,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -725,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +736,7 @@
     <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="75.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -779,7 +780,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -796,8 +797,8 @@
       <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9">
-        <v>23423</v>
+      <c r="F2" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>14</v>
@@ -814,7 +815,7 @@
       <c r="K2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="9">
         <v>659182</v>
       </c>
     </row>
@@ -832,8 +833,8 @@
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="9">
-        <v>23432</v>
+      <c r="F3" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>21</v>
@@ -850,8 +851,8 @@
       <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>67</v>
+      <c r="L3" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -868,8 +869,8 @@
       <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="9">
-        <v>324324</v>
+      <c r="F4" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>26</v>
@@ -886,8 +887,8 @@
       <c r="K4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>68</v>
+      <c r="L4" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -904,8 +905,8 @@
       <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="10">
-        <v>234324</v>
+      <c r="F5" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>31</v>
@@ -922,7 +923,7 @@
       <c r="K5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="9">
         <v>141600</v>
       </c>
     </row>
@@ -940,8 +941,8 @@
       <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="9">
-        <v>2342</v>
+      <c r="F6" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>35</v>
@@ -958,8 +959,8 @@
       <c r="K6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>69</v>
+      <c r="L6" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -976,8 +977,8 @@
       <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="9">
-        <v>32424</v>
+      <c r="F7" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>41</v>
@@ -994,8 +995,8 @@
       <c r="K7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>67</v>
+      <c r="L7" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1012,8 +1013,8 @@
       <c r="E8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="9">
-        <v>234242</v>
+      <c r="F8" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>46</v>
@@ -1028,16 +1029,16 @@
         <v>49</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="11" t="s">
         <v>71</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>12</v>
@@ -1048,32 +1049,32 @@
       <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="9">
-        <v>23454</v>
+      <c r="F9" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>68</v>
+      <c r="L9" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1084,32 +1085,32 @@
       <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="9">
-        <v>234</v>
+      <c r="F10" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>70</v>
+      <c r="L10" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
@@ -1120,26 +1121,26 @@
       <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="9">
-        <v>6456456</v>
+      <c r="F11" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="J11" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>69</v>
+      <c r="L11" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
